--- a/regionseng/9/environmental protection/environmental protection.xlsx
+++ b/regionseng/9/environmental protection/environmental protection.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D00A5C1-670F-4461-976D-79DF6DFFDE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Kakheti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -76,12 +75,6 @@
     <t>0 Negligible magnitude.</t>
   </si>
   <si>
-    <t>Forest area* - 288 thousand hectares</t>
-  </si>
-  <si>
-    <t>Of which covered by forest* - 268 thousand hectares</t>
-  </si>
-  <si>
     <t>Volume of felled timber* (cubic metre)</t>
   </si>
   <si>
@@ -114,16 +107,22 @@
   <si>
     <t>"-" Magnitude nil.</t>
   </si>
+  <si>
+    <t>Forest area* - 284 thousand hectares</t>
+  </si>
+  <si>
+    <t>Of which covered by forest* - 264 thousand hectares</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +193,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -281,29 +287,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,23 +410,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -450,23 +445,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,70 +620,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="4" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" style="4" customWidth="1"/>
+    <col min="2" max="9" width="9.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="15">
         <v>2013</v>
@@ -729,12 +713,18 @@
         <v>2019</v>
       </c>
       <c r="I5" s="15">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12">
         <v>136938</v>
@@ -760,10 +750,16 @@
       <c r="I6" s="12">
         <v>69632</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="12">
+        <v>55288</v>
+      </c>
+      <c r="K6" s="12">
+        <v>53786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="12">
         <v>432</v>
@@ -789,8 +785,14 @@
       <c r="I7" s="12">
         <v>2416</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="12">
+        <v>1622.2</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -818,8 +820,14 @@
       <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -847,8 +855,14 @@
       <c r="I9" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -865,19 +879,25 @@
         <v>5.5</v>
       </c>
       <c r="F10" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G10" s="1">
         <v>2.6</v>
       </c>
-      <c r="G10" s="1">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="H10" s="1">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -889,8 +909,10 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -907,19 +929,25 @@
         <v>2.7</v>
       </c>
       <c r="F12" s="1">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="G12" s="1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H12" s="1">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="I12" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -936,47 +964,55 @@
         <v>2.8</v>
       </c>
       <c r="F13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="3">
         <v>0.8</v>
       </c>
-      <c r="I13" s="3">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -986,86 +1022,127 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regionseng/9/environmental protection/environmental protection.xlsx
+++ b/regionseng/9/environmental protection/environmental protection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Kakheti" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -293,6 +293,21 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -301,21 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,75 +621,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="4" customWidth="1"/>
-    <col min="2" max="9" width="9.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" style="4" customWidth="1"/>
+    <col min="2" max="9" width="9.7109375" style="4" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="15">
         <v>2013</v>
@@ -721,8 +728,9 @@
       <c r="K5" s="15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -756,8 +764,11 @@
       <c r="K6" s="12">
         <v>53786</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="12">
+        <v>52954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -791,8 +802,11 @@
       <c r="K7" s="12">
         <v>1415</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="12">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -826,8 +840,11 @@
       <c r="K8" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -861,8 +878,11 @@
       <c r="K9" s="9">
         <v>1335</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K10" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -911,8 +934,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -946,8 +970,11 @@
       <c r="K12" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -981,86 +1008,99 @@
       <c r="K13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="L13" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1072,7 +1112,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1084,7 +1124,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -1092,15 +1132,15 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1108,7 +1148,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1116,7 +1156,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1124,7 +1164,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1134,15 +1174,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
